--- a/biology/Zoologie/Garrulaxe_flammé/Garrulaxe_flammé.xlsx
+++ b/biology/Zoologie/Garrulaxe_flammé/Garrulaxe_flammé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Garrulaxe_flamm%C3%A9</t>
+          <t>Garrulaxe_flammé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trochalopteron virgatum
 Le Garrulaxe flammé (Trochalopteron virgatum) est une espèce d'oiseaux de la famille des Leiothrichidae. Cet oiseau peuple le Patkai, le massif montagneux formant une frontière naturelle entre la Birmanie et l'Inde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Garrulaxe_flamm%C3%A9</t>
+          <t>Garrulaxe_flammé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Trochalopteron virgatum a été décrite en 1874 par le topographe, géologue et naturaliste britannique Henry Haversham Godwin-Austen (1834-1923)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Trochalopteron virgatum a été décrite en 1874 par le topographe, géologue et naturaliste britannique Henry Haversham Godwin-Austen (1834-1923),.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Garrulaxe_flamm%C3%A9</t>
+          <t>Garrulaxe_flammé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1874, Godwin-Austen indique que cet oiseau mesure environ 23 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1874, Godwin-Austen indique que cet oiseau mesure environ 23 cm.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Garrulaxe_flamm%C3%A9</t>
+          <t>Garrulaxe_flammé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Major H. H. Godwin-Austen, « Descriptions of Ten new Birds from the Nágá Hills and Munipúr Valley, N.E. Frontier of Bengal », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 42, no 1,‎ 1874, p. 43–48 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, DOI 10.1111/J.1096-3642.1874.TB02450.X, lire en ligne)</t>
         </is>
